--- a/sc/qa/unit/data/xlsx/underlineColor.xlsx
+++ b/sc/qa/unit/data/xlsx/underlineColor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -66,16 +69,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -84,8 +87,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296025" y="2409825"/>
-          <a:ext cx="1476375" cy="581025"/>
+          <a:off x="4238625" y="641985"/>
+          <a:ext cx="1476375" cy="558165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -138,6 +141,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221480" y="1524000"/>
+          <a:ext cx="1476375" cy="558165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="1" u="heavy" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>Text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="1" u="dbl" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="1" u="dashLongHeavy" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>Box</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -184,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,10 +530,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -447,7 +546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -459,7 +558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
